--- a/Sep19/pos_prof/Tables/individual_countries-M_%tot_tax.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries-M_%tot_tax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -758,15 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -804,10 +810,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
@@ -822,33 +834,39 @@
         <v>9223731.5</v>
       </c>
       <c r="F2">
+        <v>42494218261.79173</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-0.01034514995792652</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.01377662517970903</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.01009217882580314</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-0.01239747135138886</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.001389990912519719</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-0.001851049417636863</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-0.006949954562598608</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>-0.009255247088184327</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
@@ -863,33 +881,39 @@
         <v>2879841.25</v>
       </c>
       <c r="F3">
+        <v>2998814894.49083</v>
+      </c>
+      <c r="G3">
+        <v>270011767.8991651</v>
+      </c>
+      <c r="H3">
         <v>-2.167703880966538e-05</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.0003471986338941837</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.960259207227502e-06</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.000249773889262483</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-2.91256164273247e-06</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>4.665016436831865e-05</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-1.456280821366233e-05</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.0002332508218415932</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
@@ -904,33 +928,39 @@
         <v>2919609</v>
       </c>
       <c r="F4">
+        <v>2218564329.546198</v>
+      </c>
+      <c r="G4">
+        <v>294014058.9589359</v>
+      </c>
+      <c r="H4">
         <v>0.0002391294534998431</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.00109128440083186</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.0001780668355413051</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.0007505513513131923</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>3.212981625519229e-05</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.0001466267194095697</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.0001606490812759614</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.0007331335970478485</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
@@ -945,33 +975,39 @@
         <v>43629437.75</v>
       </c>
       <c r="F5">
+        <v>166710713995.8035</v>
+      </c>
+      <c r="G5">
+        <v>15465937803.46667</v>
+      </c>
+      <c r="H5">
         <v>0.0009194367013488869</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.003510990716961219</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.0004848703488217977</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.002225897083888637</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.0001235369873524981</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.0004717423343658658</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.0006176849367624893</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.00235871167182933</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
@@ -986,33 +1022,39 @@
         <v>8683733.75</v>
       </c>
       <c r="F6">
+        <v>163227474729.9723</v>
+      </c>
+      <c r="G6">
+        <v>9639820060.340796</v>
+      </c>
+      <c r="H6">
         <v>0.001226946576348393</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.001127582539901964</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.0008948588232324208</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.0008281052680623526</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.0001648545065279336</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.0001515037954939201</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.0008242725326396685</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.0007575189774696006</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
@@ -1027,33 +1069,39 @@
         <v>24041166</v>
       </c>
       <c r="F7">
+        <v>361502269857.717</v>
+      </c>
+      <c r="G7">
+        <v>59545549400.06455</v>
+      </c>
+      <c r="H7">
         <v>0.006208242840257229</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.007268743706943802</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.01011221854416118</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.01082467151652441</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.0008341494483665048</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.0009766400428391504</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.004170747241832523</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.004883200214195753</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
@@ -1067,34 +1115,40 @@
       <c r="E8">
         <v>104555.5</v>
       </c>
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.08550529520849598</v>
@@ -1109,33 +1163,39 @@
         <v>3531449</v>
       </c>
       <c r="F9">
+        <v>6376905261.574483</v>
+      </c>
+      <c r="G9">
+        <v>299987147.5604433</v>
+      </c>
+      <c r="H9">
         <v>-6.702179383004215e-05</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>5.680920805608369e-05</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-9.458489053707841e-05</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-1.13942321077896e-05</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-9.00515553118194e-06</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>7.632976154675827e-06</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>-4.502577765590982e-05</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>3.816488077337897e-05</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.0166705414399613</v>
@@ -1150,33 +1210,39 @@
         <v>284579.25</v>
       </c>
       <c r="F10">
+        <v>1337070536.443148</v>
+      </c>
+      <c r="G10">
+        <v>130111830.9037901</v>
+      </c>
+      <c r="H10">
         <v>-0.09704780519106332</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-0.1659576071961169</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-0.06690522357032497</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-0.1131993802331617</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-0.01303949849390091</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-0.02229832982646824</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-0.06519749246950469</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>-0.1114916491323414</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.3807937740264143</v>
@@ -1191,33 +1257,39 @@
         <v>162056869</v>
       </c>
       <c r="F11">
+        <v>19299500079.81276</v>
+      </c>
+      <c r="G11">
+        <v>3852631858.235275</v>
+      </c>
+      <c r="H11">
         <v>-0.004287232347823866</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-0.003851570282135129</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-0.003124123527657126</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-0.002831442264118299</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-0.0005760394027705478</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.0005175031500627825</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.002880197013852745</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-0.002587515750313918</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.1765509802813119</v>
@@ -1232,33 +1304,39 @@
         <v>11296685.75</v>
       </c>
       <c r="F12">
+        <v>207904913535.2679</v>
+      </c>
+      <c r="G12">
+        <v>19310426587.22296</v>
+      </c>
+      <c r="H12">
         <v>0.0074103360304429</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.002264595314134145</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.00599455896672952</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.002537609157910377</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.0009956646141355307</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.000304274652371703</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.004978323070677646</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.001521373261858503</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.08541399034785069</v>
@@ -1273,33 +1351,39 @@
         <v>7151435.5</v>
       </c>
       <c r="F13">
+        <v>15635710825.9256</v>
+      </c>
+      <c r="G13">
+        <v>1209008774.759262</v>
+      </c>
+      <c r="H13">
         <v>6.026393236739178e-05</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.001781235232512247</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.00032425272671557</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.001480415023848695</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>8.097158444687162e-06</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.0002393296178713123</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>4.048579222343505e-05</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.00119664808935656</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.03195894343465661</v>
@@ -1314,10 +1398,10 @@
         <v>1406501.75</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>344245067.4295055</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>41603949.32570496</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1337,10 +1421,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.5435900323311412</v>
@@ -1355,33 +1445,39 @@
         <v>10806586.5</v>
       </c>
       <c r="F15">
+        <v>10765106899.85116</v>
+      </c>
+      <c r="G15">
+        <v>1857238890.070168</v>
+      </c>
+      <c r="H15">
         <v>0.00112970583793663</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.002117847164079008</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.001153018997702158</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.001816860251434155</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.0001517890852175839</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.0002845573359639833</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.0007589454260879192</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.001422786679819916</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>6.471261278245624</v>
@@ -1396,33 +1492,39 @@
         <v>206779096</v>
       </c>
       <c r="F16">
+        <v>614031604400.1611</v>
+      </c>
+      <c r="G16">
+        <v>50490649816.95195</v>
+      </c>
+      <c r="H16">
         <v>0.006642359636615783</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.01082292996620338</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.006766154221859702</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.009574694837950022</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.0008924780762128529</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.001454186199430916</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.004462390381064265</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.007270930997154579</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0.001481620105625933</v>
@@ -1437,7 +1539,7 @@
         <v>388900</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1700685949.597928</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1460,10 +1562,16 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.3305610002155921</v>
@@ -1478,33 +1586,39 @@
         <v>2229922.75</v>
       </c>
       <c r="F18">
+        <v>3625845354.29923</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0.0007291855696721532</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.002044791593607788</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.0004424578364394138</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.0013262924957551</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>9.7974540679153e-05</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.0002747414725422902</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.0004898727033957646</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.001373707362711451</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.1848601141168272</v>
@@ -1519,33 +1633,39 @@
         <v>9493384</v>
       </c>
       <c r="F19">
+        <v>16491907898.09357</v>
+      </c>
+      <c r="G19">
+        <v>1436245672.195966</v>
+      </c>
+      <c r="H19">
         <v>1.814915583710861e-05</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.0002395807841347852</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>2.522897469908898e-06</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.0001512824380903839</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>2.438549637857697e-06</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>3.219045776195269e-05</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>1.219274818928844e-05</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.0001609522888097634</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.2732084640075076</v>
@@ -1560,33 +1680,39 @@
         <v>36085137</v>
       </c>
       <c r="F20">
+        <v>495997171341.8364</v>
+      </c>
+      <c r="G20">
+        <v>52563581921.39192</v>
+      </c>
+      <c r="H20">
         <v>0.007405388505978347</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.009467957881294686</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.008785033381968829</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.01017068400075687</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.0009949998568267249</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.001272129980584335</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.004974999284133625</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.006360649902921667</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.1152854342222651</v>
@@ -1601,33 +1727,39 @@
         <v>17835239.75</v>
       </c>
       <c r="F21">
+        <v>43397909696.74773</v>
+      </c>
+      <c r="G21">
+        <v>10627264858.73001</v>
+      </c>
+      <c r="H21">
         <v>-0.009083053432030926</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>-0.0005298577151346439</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-0.006601649220576005</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>-0.0008555438630702357</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>-0.001220413602490162</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>-7.119253098900803e-05</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>-0.00610206801245081</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>-0.0003559626549450401</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.2635720909729406</v>
@@ -1642,33 +1774,39 @@
         <v>1375137500</v>
       </c>
       <c r="F22">
+        <v>2669714541701.067</v>
+      </c>
+      <c r="G22">
+        <v>434215616892.8914</v>
+      </c>
+      <c r="H22">
         <v>0.0002862751712274944</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.001796275226964778</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>8.395877019865991e-05</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.001098388896352083</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>3.846439037660891e-05</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.0002413504156072938</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.0001923219518830442</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.001206752078036468</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.6926113902235932</v>
@@ -1683,33 +1821,39 @@
         <v>48434910.5</v>
       </c>
       <c r="F23">
+        <v>54317832169.73812</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0.00354057842199702</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.00845637029608191</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>0.003382340539472744</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.006684808875168965</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.0004757177857889328</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.001136211452928177</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.002378588928944663</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.005681057264640883</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0.1696800597082566</v>
@@ -1724,33 +1868,39 @@
         <v>4832117.5</v>
       </c>
       <c r="F24">
+        <v>7813132536.326554</v>
+      </c>
+      <c r="G24">
+        <v>1653404469.940727</v>
+      </c>
+      <c r="H24">
         <v>0.0009806436026596717</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.05431176328618754</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-0.001353086523467567</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.03447518663646214</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.00013176084461426</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.007297415476600201</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.0006588042230712864</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.03648707738300101</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0.05140512758335535</v>
@@ -1764,34 +1914,40 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>127</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.01021498128951731</v>
@@ -1806,33 +1962,39 @@
         <v>1165742.5</v>
       </c>
       <c r="F26">
+        <v>4918777342.358389</v>
+      </c>
+      <c r="G26">
+        <v>1133445849.661561</v>
+      </c>
+      <c r="H26">
         <v>-0.03641644499818852</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>-0.0365511343444777</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-0.03676153359711563</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>-0.03685201897824428</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>-0.00489297185827374</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>-0.004911068934499472</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>-0.02446485929136873</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>-0.02455534467249737</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.1657072661536193</v>
@@ -1847,33 +2009,39 @@
         <v>10557265.25</v>
       </c>
       <c r="F27">
+        <v>68118979753.21311</v>
+      </c>
+      <c r="G27">
+        <v>7232899630.742956</v>
+      </c>
+      <c r="H27">
         <v>0.0007669321158412609</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.004646540527368173</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0.0004496741884529865</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.003056026178559045</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.0001030462270604477</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.0006243166250816593</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.0005152311353022378</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.003121583125408295</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>0.3567911176518284</v>
@@ -1888,33 +2056,39 @@
         <v>81928195</v>
       </c>
       <c r="F28">
+        <v>1306253977481.738</v>
+      </c>
+      <c r="G28">
+        <v>70004185267.32045</v>
+      </c>
+      <c r="H28">
         <v>0.003403573554671797</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.003372384423087257</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.00247614279696157</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.002455189688670146</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.0004573095924492974</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.0004531189707910126</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.002286547962246487</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.002265594853955062</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0.5233560154281636</v>
@@ -1929,33 +2103,39 @@
         <v>5706142.75</v>
       </c>
       <c r="F29">
+        <v>139276466440.4725</v>
+      </c>
+      <c r="G29">
+        <v>9208793855.98259</v>
+      </c>
+      <c r="H29">
         <v>0.0006541078642185649</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.0007550053404205516</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.0005055071160450232</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.0005732908483192365</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>8.788697996348039e-05</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.000101443726418323</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.0004394348998174021</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.0005072186320916156</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.1134284127311136</v>
@@ -1970,33 +2150,39 @@
         <v>10587506.75</v>
       </c>
       <c r="F30">
+        <v>9841476869.357698</v>
+      </c>
+      <c r="G30">
+        <v>1647374473.501711</v>
+      </c>
+      <c r="H30">
         <v>-0.0057304950804921</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.009829592669490503</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>-0.005222619853623275</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.005230771667257217</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>-0.0007699584944169801</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.001320719809759119</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>-0.003849792472084899</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.006603599048795593</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0.5868422406058135</v>
@@ -2011,33 +2197,39 @@
         <v>40227258.75</v>
       </c>
       <c r="F31">
+        <v>22778595737.35755</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>-0.01098850671794637</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>-0.01101839826137081</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-0.01044620674001598</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>-0.01046628811819326</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>-0.001476433356908894</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>-0.001480449632544351</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>-0.007382166784544474</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>-0.007402248162721753</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>4.507268197059778</v>
@@ -2052,33 +2244,39 @@
         <v>16264351.5</v>
       </c>
       <c r="F32">
+        <v>13997334282.94469</v>
+      </c>
+      <c r="G32">
+        <v>1015246901.280969</v>
+      </c>
+      <c r="H32">
         <v>0.004949682642834263</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.007516462609233697</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.004743107033889842</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.006467490364360184</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.0006650472850927317</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>0.0010099239511868</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>0.00332523642546366</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.005049619755934</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>0.2102643889941552</v>
@@ -2093,33 +2291,39 @@
         <v>1315305.5</v>
       </c>
       <c r="F33">
+        <v>7697058981.156044</v>
+      </c>
+      <c r="G33">
+        <v>361416955.3250054</v>
+      </c>
+      <c r="H33">
         <v>-0.0001840155964871752</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.001702466758007691</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>-0.0003199385294056351</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.0009474154190828204</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>-2.472463018122685e-05</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.0002287461595164642</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>-0.000123623150906135</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.00114373079758232</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1.198105386173035</v>
@@ -2133,34 +2337,40 @@
       <c r="E34">
         <v>94708142.5</v>
       </c>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" t="s">
-        <v>128</v>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>11105157233.4294</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N34" t="s">
+        <v>130</v>
+      </c>
+      <c r="O34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1.261330904214141</v>
@@ -2175,33 +2385,39 @@
         <v>46495451</v>
       </c>
       <c r="F35">
+        <v>415655347467.2473</v>
+      </c>
+      <c r="G35">
+        <v>28563666355.93319</v>
+      </c>
+      <c r="H35">
         <v>0.003921501817220109</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.004189524194727654</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.003294610102452202</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.003474669681386564</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0.0005268992630879216</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>0.0005629111788747937</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.002634496315439608</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.002814555894373969</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>0.1270732915691374</v>
@@ -2216,33 +2432,39 @@
         <v>5486912.25</v>
       </c>
       <c r="F36">
+        <v>103462881215.5806</v>
+      </c>
+      <c r="G36">
+        <v>6534284466.24057</v>
+      </c>
+      <c r="H36">
         <v>4.340657291508347e-05</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.0001226881912077291</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>5.330469364583238e-05</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.0001065667195250213</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>5.832176637455337e-06</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>1.648458181329313e-05</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>2.916088318727669e-05</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>8.242290906646542e-05</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>0.182619173558908</v>
@@ -2257,33 +2479,39 @@
         <v>895554.25</v>
       </c>
       <c r="F37">
+        <v>1261625587.410089</v>
+      </c>
+      <c r="G37">
+        <v>206282623.6744426</v>
+      </c>
+      <c r="H37">
         <v>0.001809901300533503</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.009411619958848668</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.003988837717649993</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.009095733169897015</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.0002431812366694226</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>0.001264560327118827</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.001215906183347111</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.006322801635594134</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>0.4691004962934454</v>
@@ -2298,33 +2526,39 @@
         <v>66721968.5</v>
       </c>
       <c r="F38">
+        <v>1140278490929.481</v>
+      </c>
+      <c r="G38">
+        <v>57843670218.60881</v>
+      </c>
+      <c r="H38">
         <v>0.002657054303671467</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.002961073736471552</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.00218024704742295</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.002384489736286891</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.0003570060705930064</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0.0003978546083657945</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.001785030352965033</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.001989273041828973</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>0.1870761118100804</v>
@@ -2339,33 +2573,39 @@
         <v>65339964.75</v>
       </c>
       <c r="F39">
+        <v>881016914419.2806</v>
+      </c>
+      <c r="G39">
+        <v>74902123749.16447</v>
+      </c>
+      <c r="H39">
         <v>0.003908409653079669</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.004492711392487346</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.003886124929805569</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>0.004278663516123425</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.000525140178951449</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>0.0006036478962150196</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.002625700894757238</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.003018239481075092</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>0.03179971778383467</v>
@@ -2380,33 +2620,39 @@
         <v>3720125</v>
       </c>
       <c r="F40">
+        <v>3702582423.970196</v>
+      </c>
+      <c r="G40">
+        <v>286471265.8863319</v>
+      </c>
+      <c r="H40">
         <v>-0.0005707976982821724</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-0.0004076365323937526</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>-0.000762898051847951</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>-0.000653285074373779</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>-7.669329267590565e-05</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>-5.477069718107134e-05</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>-0.0003834664633795289</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>-0.000273853485905357</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.4895231132881281</v>
@@ -2421,33 +2667,39 @@
         <v>1198498</v>
       </c>
       <c r="F41">
+        <v>603079805.3765075</v>
+      </c>
+      <c r="G41">
+        <v>308035640.2218897</v>
+      </c>
+      <c r="H41">
         <v>-0.1309711954576125</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>-0.1672079132483958</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>-0.02349773041139407</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>-0.04784184752597382</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>-0.01759749952666836</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>-0.0224663229495843</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>-0.08798749763334195</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>-0.1123316147479217</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>0.3168591219452894</v>
@@ -2462,33 +2714,39 @@
         <v>10812422</v>
       </c>
       <c r="F42">
+        <v>74878918912.15085</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0.0004084501064488914</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.0009480807316289624</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.0001299553930001712</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>0.0004924835671533727</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>5.488001029377675e-05</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>0.0001273856451244171</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.0002744000514688837</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.0006369282256220855</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>2.534325418380812</v>
@@ -2503,33 +2761,39 @@
         <v>16417990</v>
       </c>
       <c r="F43">
+        <v>7414246639.670252</v>
+      </c>
+      <c r="G43">
+        <v>2436431034.642188</v>
+      </c>
+      <c r="H43">
         <v>0.0116983267028431</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0.02821388625150012</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>0.01022960181023653</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>0.02132488693475141</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>0.001571805906610348</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>0.003790862931513324</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.00785902953305174</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.01895431465756662</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0.2459453713445875</v>
@@ -2543,34 +2807,40 @@
       <c r="E44">
         <v>162472.25</v>
       </c>
-      <c r="F44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" t="s">
-        <v>127</v>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N44" t="s">
+        <v>129</v>
+      </c>
+      <c r="O44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>0.1631121327213523</v>
@@ -2585,33 +2855,39 @@
         <v>7312275</v>
       </c>
       <c r="F45">
+        <v>43559381238.4065</v>
+      </c>
+      <c r="G45">
+        <v>17869524335.30607</v>
+      </c>
+      <c r="H45">
         <v>0.008873971563288672</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>-0.005634438647913449</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>-0.003272020743211454</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>-0.01301888687405353</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.001192321027833797</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>-0.0007570521983346234</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.005961605139168965</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>-0.003785260991673109</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>0.3527272633555201</v>
@@ -2626,33 +2902,39 @@
         <v>9036994.75</v>
       </c>
       <c r="F46">
+        <v>4368900443.186634</v>
+      </c>
+      <c r="G46">
+        <v>731894567.9101902</v>
+      </c>
+      <c r="H46">
         <v>0.01223159361117724</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.09920659772013504</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>0.009281027413371364</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>0.06771153147541575</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>0.001643456502256282</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>0.01332955731466516</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.008217282511281414</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.06664778657332578</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>0.2107511226836432</v>
@@ -2667,33 +2949,39 @@
         <v>4185510.5</v>
       </c>
       <c r="F47">
+        <v>18056223502.80032</v>
+      </c>
+      <c r="G47">
+        <v>876216512.2493358</v>
+      </c>
+      <c r="H47">
         <v>-0.0001693900496972695</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0.0005766443411148798</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>-0.0002071545858857158</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>0.00029403729043964</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>-2.275951829679042e-05</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>7.747885696828088e-05</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>-0.0001137975914839518</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.000387394284841404</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0.2119778536923761</v>
@@ -2708,33 +2996,39 @@
         <v>9826161.5</v>
       </c>
       <c r="F48">
+        <v>48481519860.35867</v>
+      </c>
+      <c r="G48">
+        <v>2395343498.338683</v>
+      </c>
+      <c r="H48">
         <v>-0.01475685867128752</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>-0.01158695741081083</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>-0.01576494213691353</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>-0.01363537709263334</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>-0.001982755159069603</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>-0.001556842150213567</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>-0.009913775795348013</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>-0.007784210751067825</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.294768796409911</v>
@@ -2749,33 +3043,39 @@
         <v>259600016</v>
       </c>
       <c r="F49">
+        <v>92118038247.22937</v>
+      </c>
+      <c r="G49">
+        <v>35769714392.45492</v>
+      </c>
+      <c r="H49">
         <v>-0.004721684313261645</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-0.002096292262900356</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-0.002112903317507929</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>-0.0003491439197973046</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>-0.0006344130644710396</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-0.0002816611849289148</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>-0.003172065322355197</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>-0.001408305924644574</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0.1363884680781818</v>
@@ -2790,33 +3090,39 @@
         <v>4732160</v>
       </c>
       <c r="F50">
+        <v>69641425049.92018</v>
+      </c>
+      <c r="G50">
+        <v>8500134030.786361</v>
+      </c>
+      <c r="H50">
         <v>-0.00198413076629877</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>-0.02416089479329237</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>-0.009075982562141552</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>-0.02397451017748881</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-0.0002665909866577576</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-0.003246296509727208</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>-0.001332954933288788</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>-0.01623148254863604</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>0.2898440760060395</v>
@@ -2831,33 +3137,39 @@
         <v>8463550</v>
       </c>
       <c r="F51">
+        <v>103289811942.907</v>
+      </c>
+      <c r="G51">
+        <v>10472158076.76882</v>
+      </c>
+      <c r="H51">
         <v>-0.002576807286424947</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>-0.001558317732131345</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>-0.002261088818817128</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>-0.001576859382452285</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>-0.0003462239528679746</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-0.0002093780655950058</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>-0.001731119764339872</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>-0.001046890327975029</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>0.3392858462128337</v>
@@ -2872,33 +3184,39 @@
         <v>1316566188.75</v>
       </c>
       <c r="F52">
+        <v>399582448671.4861</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>-0.004118232040412871</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.0177144408041763</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-0.004642567273080035</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>0.01002479713121397</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-0.0005533322508713797</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>0.002380140629987421</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>-0.002766661254356898</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>0.01190070314993711</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>0.4538924418798343</v>
@@ -2913,33 +3231,39 @@
         <v>60674659</v>
       </c>
       <c r="F53">
+        <v>785093710222.7733</v>
+      </c>
+      <c r="G53">
+        <v>38868557922.75883</v>
+      </c>
+      <c r="H53">
         <v>0.001651682465453072</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>0.001726188423992705</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>0.001291122001508377</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>0.001341175700932671</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>0.0002219227006553795</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>0.0002319334405402385</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>0.001109613503276897</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>0.001159667202701191</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.1881317763475457</v>
@@ -2953,34 +3277,40 @@
       <c r="E54">
         <v>164145.5</v>
       </c>
-      <c r="F54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" t="s">
-        <v>128</v>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N54" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.2116892168852285</v>
@@ -2995,33 +3325,39 @@
         <v>2876418.75</v>
       </c>
       <c r="F55">
+        <v>3610863626.732725</v>
+      </c>
+      <c r="G55">
+        <v>453137723.1855795</v>
+      </c>
+      <c r="H55">
         <v>-0.001825523473984114</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.01250386881586345</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>-0.00214771451345742</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>0.007478885944642841</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>-0.0002452802569077429</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>0.001680039834712309</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>-0.001226401284538718</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.008400199173561542</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.0521518084924196</v>
@@ -3036,33 +3372,39 @@
         <v>9281690.75</v>
       </c>
       <c r="F56">
+        <v>5832398854.790161</v>
+      </c>
+      <c r="G56">
+        <v>994543936.615576</v>
+      </c>
+      <c r="H56">
         <v>-0.004117489153571689</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>-0.003913606901563577</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>-0.003056673703156987</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>-0.002919703974024066</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>-0.0005532324354059227</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>-0.0005258384895793378</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>-0.002766162177029612</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>-0.00262919244789669</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>0.2562328189538541</v>
@@ -3077,33 +3419,39 @@
         <v>127049327</v>
       </c>
       <c r="F57">
+        <v>1583945537084.176</v>
+      </c>
+      <c r="G57">
+        <v>222513048778.0717</v>
+      </c>
+      <c r="H57">
         <v>-0.001731354279217354</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>-0.001926529696724276</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>-0.002438217198138856</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>-0.002569337606148988</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>-0.0002326275331195489</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>-0.0002588516147215756</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>-0.001163137665597745</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>-0.001294258073607878</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>2.613787747665656</v>
@@ -3118,33 +3466,39 @@
         <v>47855484.5</v>
       </c>
       <c r="F58">
+        <v>10989048500.8325</v>
+      </c>
+      <c r="G58">
+        <v>2481386396.879453</v>
+      </c>
+      <c r="H58">
         <v>0.001985936936774017</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.003047878888570627</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>0.001736305286542907</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>0.002449726391420055</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>0.0002668336666147669</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>0.0004095178875901964</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.001334168333073834</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.002047589437950982</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>0.2387805447697462</v>
@@ -3159,33 +3513,39 @@
         <v>15639042</v>
       </c>
       <c r="F59">
+        <v>3180057034.950613</v>
+      </c>
+      <c r="G59">
+        <v>620313116.6581955</v>
+      </c>
+      <c r="H59">
         <v>7.917502573260794e-05</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>0.0027504408177666</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>0.0007947230389303884</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>0.002589300783551235</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>1.063808322880031e-05</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>0.0003695536321529695</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>5.319041614400037e-05</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.001847768160764847</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>0.07143822361100609</v>
@@ -3200,33 +3560,39 @@
         <v>54548.25</v>
       </c>
       <c r="F60">
+        <v>167004107.5429425</v>
+      </c>
+      <c r="G60">
+        <v>22886482.44958925</v>
+      </c>
+      <c r="H60">
         <v>-0.09871952940934706</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>-0.06807467268041002</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>-0.06857075098890432</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>-0.04798329090281159</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>-0.01326411403655657</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>-0.009146622019338016</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>-0.06632057018278285</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>-0.04573311009669009</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.3068939985094956</v>
@@ -3241,33 +3607,39 @@
         <v>51118378.5</v>
       </c>
       <c r="F61">
+        <v>379564407726.6359</v>
+      </c>
+      <c r="G61">
+        <v>54063077465.50417</v>
+      </c>
+      <c r="H61">
         <v>0.0002388151038206055</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.0005358975539106316</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>5.49043423201949e-05</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>0.0002544867106636485</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>3.208757972896791e-05</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>7.200405339765839e-05</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.0001604378986448395</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.0003600202669882925</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>0.1992611222189326</v>
@@ -3282,7 +3654,7 @@
         <v>3976839</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1834582609.415073</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3305,10 +3677,16 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.3736880925013732</v>
@@ -3323,33 +3701,39 @@
         <v>17665698</v>
       </c>
       <c r="F63">
+        <v>22181808348.12268</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>-0.003063929262780572</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>-0.002672583579652916</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>0.004900347502788709</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>0.005163256665736354</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>-0.0004116744415681568</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>-0.0003590926089786277</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>-0.002058372207840786</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>-0.00179546304489314</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>0.1428837294172986</v>
@@ -3364,33 +3748,39 @@
         <v>5885945.75</v>
       </c>
       <c r="F64">
+        <v>7704382071.825423</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>-0.0006812622053496652</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>-0.000521962647310449</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>-0.0008307216347504664</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>-0.0007237029163445233</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>-9.153548071612244e-05</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>-7.013173703493388e-05</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>-0.0004576774035806127</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>-0.0003506586851746694</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>0.01908654605389848</v>
@@ -3405,33 +3795,39 @@
         <v>177621.5</v>
       </c>
       <c r="F65">
+        <v>342990005.1519836</v>
+      </c>
+      <c r="G65">
+        <v>34070453.3745492</v>
+      </c>
+      <c r="H65">
         <v>-0.0396988628580244</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>-0.03770224969468298</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>-0.03105653050255159</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>-0.02971518979499839</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>-0.005334002777576033</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>-0.005065734636065392</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>-0.02667001388788014</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>-0.02532867318032695</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0.1877638499118782</v>
@@ -3446,33 +3842,39 @@
         <v>21096000</v>
       </c>
       <c r="F66">
+        <v>10295289857.28315</v>
+      </c>
+      <c r="G66">
+        <v>1079873612.750378</v>
+      </c>
+      <c r="H66">
         <v>-5.09564236188841e-05</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>0.001395110276258594</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>-0.0003792791791219621</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>0.000592200006729272</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-6.846586666487451e-06</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>0.0001874492505037595</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>-3.423293333243762e-05</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>0.000937246252518796</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>0.1157679105624186</v>
@@ -3487,33 +3889,39 @@
         <v>2883307.25</v>
       </c>
       <c r="F67">
+        <v>12668620841.55388</v>
+      </c>
+      <c r="G67">
+        <v>640003904.3871918</v>
+      </c>
+      <c r="H67">
         <v>-0.0004684394525362043</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>0.001267857508866909</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-0.0006450456087695164</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>0.0005214125902905858</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-6.294027488621758e-05</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>0.000170351364925803</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>-0.0003147013744310878</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>0.0008517568246290143</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>0.03882925511546208</v>
@@ -3528,33 +3936,39 @@
         <v>1967896.5</v>
       </c>
       <c r="F68">
+        <v>8331725108.718972</v>
+      </c>
+      <c r="G68">
+        <v>436094132.0608147</v>
+      </c>
+      <c r="H68">
         <v>-0.0003386560679462376</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>-0.0001032370473081142</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>-0.0005571107817896473</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>-0.0003989543990150516</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>-4.550237152959356e-05</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-1.387109497467429e-05</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>-0.0002275118576479677</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>-6.935547487337186e-05</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0.2114788631148144</v>
@@ -3569,33 +3983,39 @@
         <v>35034442.5</v>
       </c>
       <c r="F69">
+        <v>23155221009.51609</v>
+      </c>
+      <c r="G69">
+        <v>4710628793.764984</v>
+      </c>
+      <c r="H69">
         <v>0.0006372631893696025</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.008344528277000648</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>0.0002592957836119384</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>0.005437098172053527</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>8.562370247986466e-05</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.001121184180168182</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.0004281185123993216</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.005605920900840909</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>0.4709552485333245</v>
@@ -3609,34 +4029,40 @@
       <c r="E70">
         <v>38408.25</v>
       </c>
-      <c r="F70" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" t="s">
-        <v>128</v>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N70" t="s">
+        <v>130</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>0.0927937946339874</v>
@@ -3651,33 +4077,39 @@
         <v>2103721</v>
       </c>
       <c r="F71">
+        <v>2748208316.912612</v>
+      </c>
+      <c r="G71">
+        <v>198917935.3193891</v>
+      </c>
+      <c r="H71">
         <v>0.0002517671215138447</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>0.002791301252057954</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>0.0003481628099317038</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>0.002054242169750615</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>3.382783356439947e-05</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>0.0003750437055281818</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>0.0001691391678219973</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>0.001875218527640909</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0.2938881340975527</v>
@@ -3692,33 +4124,39 @@
         <v>52645920.75</v>
       </c>
       <c r="F72">
+        <v>4234214727.32078</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>0.0002761684366612751</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>0.002197354656806556</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>0.001868394773116921</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>0.003159063056380399</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>3.710643333785839e-05</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>0.000295240089990554</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.0001855321666892928</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.001476200449952771</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.005174931977624367</v>
@@ -3733,33 +4171,39 @@
         <v>606114.25</v>
       </c>
       <c r="F73">
+        <v>12775118296.0182</v>
+      </c>
+      <c r="G73">
+        <v>627262048.2019763</v>
+      </c>
+      <c r="H73">
         <v>-0.006311317829488915</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>-0.003292736417272187</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>-0.002725751816981589</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>-0.0006978446581939317</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>-0.0008479987689585487</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>-0.0004424173372010177</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>-0.00423999384479275</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>-0.002212086686005095</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0.1223696320960522</v>
@@ -3774,33 +4218,39 @@
         <v>450064.75</v>
       </c>
       <c r="F74">
+        <v>3687889025.586543</v>
+      </c>
+      <c r="G74">
+        <v>730216301.5493581</v>
+      </c>
+      <c r="H74">
         <v>-0.003161237930708324</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>-0.006902072904873733</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>-0.006103578163282825</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>-0.008616701047181574</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>-0.0004247489899970391</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>-0.0009273735667767888</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>-0.002123744949985202</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>-0.004636867833883951</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0.05989864754605726</v>
@@ -3815,33 +4265,39 @@
         <v>1262906.25</v>
       </c>
       <c r="F75">
+        <v>2271466888.177237</v>
+      </c>
+      <c r="G75">
+        <v>315552337.3372826</v>
+      </c>
+      <c r="H75">
         <v>-0.1442274712497396</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>-0.1492595915489296</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>-0.1510063649088632</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>-0.1543869836118432</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>-0.01937863396743052</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>-0.02005475770802652</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>-0.09689316983715261</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>-0.1002737885401328</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>0.4560688034870074</v>
@@ -3855,34 +4311,40 @@
       <c r="E76">
         <v>126704062</v>
       </c>
-      <c r="F76" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" t="s">
-        <v>128</v>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>37787776867.76843</v>
       </c>
       <c r="H76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N76" t="s">
+        <v>130</v>
+      </c>
+      <c r="O76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>0.1449132329743426</v>
@@ -3897,33 +4359,39 @@
         <v>30940675.25</v>
       </c>
       <c r="F77">
+        <v>40792453007.74967</v>
+      </c>
+      <c r="G77">
+        <v>17355071592.01313</v>
+      </c>
+      <c r="H77">
         <v>0.001882678681965583</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>0.01438911229281474</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>0.0029721186902061</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>0.0113740409135722</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>0.0002529597221663923</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>0.001933344166839613</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>0.001264798610831967</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>0.009666720834198061</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>1.644956220241079</v>
@@ -3935,36 +4403,42 @@
         <v>10945000000</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2452515</v>
       </c>
       <c r="F78">
+        <v>3142398453.602035</v>
+      </c>
+      <c r="G78">
+        <v>508419371.5573662</v>
+      </c>
+      <c r="H78">
         <v>0.0002756453503850185</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>0.001281291514324418</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>0.0001797677742251807</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>0.0008553689181288752</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>3.703615062823929e-05</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>0.0001721563794089782</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>0.0001851807531411964</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>0.0008607818970448907</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>1.77626889548744</v>
@@ -3978,34 +4452,40 @@
       <c r="E79">
         <v>183629549.25</v>
       </c>
-      <c r="F79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" t="s">
-        <v>127</v>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>4255580884.992722</v>
       </c>
       <c r="H79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N79" t="s">
+        <v>130</v>
+      </c>
+      <c r="O79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>0.3602404008541973</v>
@@ -4020,33 +4500,39 @@
         <v>6115885.25</v>
       </c>
       <c r="F80">
+        <v>3148813587.287746</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>0.004564708062933711</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>0.01986109082830949</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>0.003604092947533138</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>0.01388032534859401</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.0006133214841339111</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.002668567964346087</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.003066607420669553</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.01334283982173043</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>0.0813244501352182</v>
@@ -4061,33 +4547,39 @@
         <v>16992024.75</v>
       </c>
       <c r="F81">
+        <v>301314513790.1466</v>
+      </c>
+      <c r="G81">
+        <v>25519214650.87755</v>
+      </c>
+      <c r="H81">
         <v>-0.01249775811171405</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>-0.01896075777407778</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>-0.01478908947113983</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>-0.01913098438558735</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>-0.001679218790718617</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>-0.00254759777360812</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>-0.008396093953593101</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>-0.01273798886804062</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>1.120509505427408</v>
@@ -4102,33 +4594,39 @@
         <v>5211053.25</v>
       </c>
       <c r="F82">
+        <v>143642415165.2614</v>
+      </c>
+      <c r="G82">
+        <v>12711932917.64178</v>
+      </c>
+      <c r="H82">
         <v>0.001921347915356518</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>0.001509490125937537</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>0.003184408064065718</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>0.00290771870389641</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>0.000258155382280176</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>0.0002028175102463147</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>0.001290776911400881</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>0.001014087551231574</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>0.2769680603303864</v>
@@ -4143,33 +4641,39 @@
         <v>4648125</v>
       </c>
       <c r="F83">
+        <v>60860293470.54649</v>
+      </c>
+      <c r="G83">
+        <v>8974944428.672821</v>
+      </c>
+      <c r="H83">
         <v>0.0005367638452472036</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.001312542065540886</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>3.297750282160549e-06</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>0.000524471769375388</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>7.212044968870607e-05</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.0001763552535073512</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.0003606022484435287</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.0008817762675367557</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>0.07234454195091813</v>
@@ -4184,33 +4688,39 @@
         <v>4001485.25</v>
       </c>
       <c r="F84">
+        <v>8611043762.443003</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>0.00630955043035206</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>-0.002203853512410547</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>0.002298695958916332</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>-0.003420676966162749</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>0.0008477612983806452</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>-0.0002961132866351717</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>0.004238806491903222</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>-0.001480566433175858</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>1.41044544263576</v>
@@ -4225,33 +4735,39 @@
         <v>31572337.25</v>
       </c>
       <c r="F85">
+        <v>25389636418.45771</v>
+      </c>
+      <c r="G85">
+        <v>6646655023.312309</v>
+      </c>
+      <c r="H85">
         <v>0.006264293283259658</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.01141793704003769</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>0.01422179581044742</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>0.01768405494512372</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>0.0008416804756336707</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>0.001534132302568934</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>0.004208402378168358</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.007670661512844665</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>0.1787880268188615</v>
@@ -4266,33 +4782,39 @@
         <v>8002940.75</v>
       </c>
       <c r="F86">
+        <v>3145721283.938551</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>-0.003074533601709493</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>-0.006730547419697523</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>0.03486146771858498</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>0.03240532836646464</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>-0.0004130992575258189</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>-0.0009043271279498878</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>-0.002065496287629106</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>-0.00452163563974945</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>0.2288659649874671</v>
@@ -4307,33 +4829,39 @@
         <v>102514230</v>
       </c>
       <c r="F87">
+        <v>43415746659.06635</v>
+      </c>
+      <c r="G87">
+        <v>11350149943.31396</v>
+      </c>
+      <c r="H87">
         <v>-0.002134215091599403</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>0.03424882380551353</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>-0.002426678539757271</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>0.02201573826546741</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>-0.0002867565569131873</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>0.004601726804131749</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>-0.001433782784565938</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>0.02300863402065875</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>0.3769365909702638</v>
@@ -4348,33 +4876,39 @@
         <v>191286550.25</v>
       </c>
       <c r="F88">
+        <v>27858825095.19225</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>-0.002766522161404056</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>-0.0008805427587613016</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>-0.002885917448038316</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>-0.001618901386630625</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>-0.0003717143472327968</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>-0.0001183111349512585</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>-0.001858571736163986</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>-0.0005915556747562941</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>0.1982935992218995</v>
@@ -4389,33 +4923,39 @@
         <v>37986018.75</v>
       </c>
       <c r="F89">
+        <v>159205910232.1582</v>
+      </c>
+      <c r="G89">
+        <v>9126103320.209379</v>
+      </c>
+      <c r="H89">
         <v>0.001294248339056684</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>0.005240509326659631</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>0.001100564499076176</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>0.003751694223395132</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>0.0001738972791258706</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>0.0007041232239896616</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>0.0008694863956293516</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>0.003520616119948306</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>0.01553378878135734</v>
@@ -4429,34 +4969,40 @@
       <c r="E90">
         <v>3437937</v>
       </c>
-      <c r="F90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" t="s">
-        <v>127</v>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N90" t="s">
+        <v>129</v>
+      </c>
+      <c r="O90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>0.3474442448407433</v>
@@ -4471,33 +5017,39 @@
         <v>10344577</v>
       </c>
       <c r="F91">
+        <v>70681053927.93391</v>
+      </c>
+      <c r="G91">
+        <v>6615632134.18939</v>
+      </c>
+      <c r="H91">
         <v>0.001609005771311608</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>0.003203282977019905</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>0.001245416580565293</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>0.002316464770772498</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>0.0002161885916985954</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>0.0004303982297400363</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>0.001080942958492978</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>0.002151991148700182</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>0.1657047711363369</v>
@@ -4512,33 +5064,39 @@
         <v>6682077</v>
       </c>
       <c r="F92">
+        <v>3020223014.053269</v>
+      </c>
+      <c r="G92">
+        <v>606255246.4463352</v>
+      </c>
+      <c r="H92">
         <v>0.002170544783031296</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>0.001336906688317514</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>0.002231351221975201</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>0.001671306476033857</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>0.0002916378724233881</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.0001796289232351195</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>0.001458189362116939</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>0.0008981446161755964</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>0.4278407161903409</v>
@@ -4552,34 +5110,40 @@
       <c r="E93">
         <v>2516243.25</v>
       </c>
-      <c r="F93" t="s">
-        <v>127</v>
-      </c>
-      <c r="G93" t="s">
-        <v>127</v>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>6649586666.688611</v>
       </c>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N93" t="s">
+        <v>129</v>
+      </c>
+      <c r="O93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0.2631583188033569</v>
@@ -4594,33 +5158,39 @@
         <v>19753332.75</v>
       </c>
       <c r="F94">
+        <v>48321281767.00397</v>
+      </c>
+      <c r="G94">
+        <v>3772988828.179805</v>
+      </c>
+      <c r="H94">
         <v>0.001441839168550277</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.005147148152306857</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>0.001349601549791923</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>0.003838857788921206</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>0.0001937278192921978</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.0006915790671180543</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.0009686390964609887</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.003457895335590272</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>3.037009127788569</v>
@@ -4635,33 +5205,39 @@
         <v>7076637.25</v>
       </c>
       <c r="F95">
+        <v>13839772672.29938</v>
+      </c>
+      <c r="G95">
+        <v>902243620.0800525</v>
+      </c>
+      <c r="H95">
         <v>0.0007392581821827122</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.003016689413520468</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>0.0007459418223925846</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>0.002275938356189839</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>9.932791302387002e-05</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.0004053272197833211</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.0004966395651193503</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.002026636098916605</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>0.4012236469816403</v>
@@ -4676,33 +5252,39 @@
         <v>144188494</v>
       </c>
       <c r="F96">
+        <v>400814842174.5289</v>
+      </c>
+      <c r="G96">
+        <v>46100109643.07681</v>
+      </c>
+      <c r="H96">
         <v>0.0006220488730359011</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>0.002025009848802519</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>0.0006558946579435142</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>0.001598415073242675</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>8.357948257681298e-05</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>0.000272083565636645</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>0.0004178974128840642</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>0.001360417828183225</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>0.4191281043252832</v>
@@ -4717,33 +5299,39 @@
         <v>31886941.5</v>
       </c>
       <c r="F97">
+        <v>21829976674.02858</v>
+      </c>
+      <c r="G97">
+        <v>3500018031.81101</v>
+      </c>
+      <c r="H97">
         <v>0.00219188106971903</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>0.005166353604274944</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>0.002943730545115695</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>0.004942005006765404</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>0.0002945046500654205</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>0.0006941595423953622</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>0.001472523250327105</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>0.003470797711976814</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>1.215566435947169</v>
@@ -4758,33 +5346,39 @@
         <v>9871531.25</v>
       </c>
       <c r="F98">
+        <v>227165214131.7061</v>
+      </c>
+      <c r="G98">
+        <v>13598015763.87418</v>
+      </c>
+      <c r="H98">
         <v>0.000430588795360769</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.0002869963999090783</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>-4.05262578071692e-05</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>-0.000136992778638923</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>5.7854599983415e-05</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>3.856129581706419e-05</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.0002892729999170754</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.0001928064790853214</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>0.06238487249287841</v>
@@ -4799,33 +5393,39 @@
         <v>5556065.5</v>
       </c>
       <c r="F99">
+        <v>44213495718.4691</v>
+      </c>
+      <c r="G99">
+        <v>14218511286.90894</v>
+      </c>
+      <c r="H99">
         <v>-0.007834940446851747</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>-0.04724077464497192</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>-0.02987123652284948</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>-0.05634439141108667</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>-0.001052715143381053</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>-0.006347346121028499</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>-0.005263575716905279</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>-0.0317367306051425</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>0.1540733019247695</v>
@@ -4840,33 +5440,39 @@
         <v>2064325.25</v>
       </c>
       <c r="F100">
+        <v>16215475323.27907</v>
+      </c>
+      <c r="G100">
+        <v>794473219.0465115</v>
+      </c>
+      <c r="H100">
         <v>0.0005130517923476841</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>0.001065701670536429</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>0.0004570027968650824</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>0.0008282774094186211</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>6.893446029449047e-05</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>0.0001431893828051983</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>0.0003446723014724525</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>0.0007159469140259915</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>0.1361389850972489</v>
@@ -4881,33 +5487,39 @@
         <v>5428285</v>
       </c>
       <c r="F101">
+        <v>29592783664.32924</v>
+      </c>
+      <c r="G101">
+        <v>2885401551.024737</v>
+      </c>
+      <c r="H101">
         <v>0.0009180265230363554</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>0.006847355507311105</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>0.0007547708227137808</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>0.004738141503177835</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>0.0001233475135365147</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>0.000920021649629326</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>0.0006167375676825708</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>0.004600108248146626</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>0.02200725380977351</v>
@@ -4922,33 +5534,39 @@
         <v>15196321.5</v>
       </c>
       <c r="F102">
+        <v>2342662060.465637</v>
+      </c>
+      <c r="G102">
+        <v>216441678.0427456</v>
+      </c>
+      <c r="H102">
         <v>-0.007154705287273927</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>-0.006527666899366311</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>-0.007393238945418802</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>-0.006971989536499025</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>-0.0009613176581792957</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>-0.0008770677763953403</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>-0.004806588290896476</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>-0.004385338881976699</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>0.2294454729434642</v>
@@ -4963,33 +5581,39 @@
         <v>6329060.5</v>
       </c>
       <c r="F103">
+        <v>4767420112.154323</v>
+      </c>
+      <c r="G103">
+        <v>999200870.7878593</v>
+      </c>
+      <c r="H103">
         <v>-0.001707561939229176</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>0.04613275983898714</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>-0.002549302441874787</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>0.02959020872721613</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>-0.0002294307562235463</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>0.006198471477594635</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>-0.001147153781117747</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.03099235738797318</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>0.005817303773967213</v>
@@ -5003,34 +5627,40 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" t="s">
-        <v>127</v>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N104" t="s">
+        <v>129</v>
+      </c>
+      <c r="O104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>0.1702710851104377</v>
@@ -5045,33 +5675,39 @@
         <v>68743849.75</v>
       </c>
       <c r="F105">
+        <v>71255532011.76402</v>
+      </c>
+      <c r="G105">
+        <v>16467162037.08834</v>
+      </c>
+      <c r="H105">
         <v>-0.001804893225116518</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>0.002418341021883469</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>-0.001882198454004897</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>0.0009550041233604634</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>-0.0002425083436376995</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>0.0003249321718353719</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>-0.001212541718188495</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>0.001624660859176865</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>0.2338423056782688</v>
@@ -5086,33 +5722,39 @@
         <v>11338236</v>
       </c>
       <c r="F106">
+        <v>12460186638.38316</v>
+      </c>
+      <c r="G106">
+        <v>679178508.4349424</v>
+      </c>
+      <c r="H106">
         <v>0.000460813589405669</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>0.003648082736351474</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>0.000257253420237853</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>0.002398486349691257</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>6.191565170582169e-05</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>0.0004901622375965024</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>0.0003095782585291081</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>0.002450811187982512</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>0.5210711135742035</v>
@@ -5127,33 +5769,39 @@
         <v>78889886.5</v>
       </c>
       <c r="F107">
+        <v>214797500930.788</v>
+      </c>
+      <c r="G107">
+        <v>14703822077.67806</v>
+      </c>
+      <c r="H107">
         <v>0.0008246030744876318</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>0.001306422128258249</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>0.0006235379340061845</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>0.0009472278316605252</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>0.0001107949894042292</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>0.0001755329689350973</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>0.0005539749470211458</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>0.0008776648446754864</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>0.1802527304245044</v>
@@ -5167,34 +5815,40 @@
       <c r="E108">
         <v>23577271</v>
       </c>
-      <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N108" t="s">
+        <v>129</v>
+      </c>
+      <c r="O108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109">
         <v>0.2967113110764871</v>
@@ -5209,33 +5863,39 @@
         <v>45065445</v>
       </c>
       <c r="F109">
+        <v>29874275095.81216</v>
+      </c>
+      <c r="G109">
+        <v>2294800315.93204</v>
+      </c>
+      <c r="H109">
         <v>0.0005349980252669905</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>0.003476865459472598</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>0.0002672135590111215</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>0.002243583653216646</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>7.188319128881541e-05</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.0004671572101299204</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.000359415956444077</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.002335786050649601</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>2.296491669346442</v>
@@ -5250,33 +5910,39 @@
         <v>40832282.75</v>
       </c>
       <c r="F110">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>0.001023276428718749</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>0.00156765624953799</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>0.001525406898782612</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>0.001891125620587164</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>0.0001374890593852519</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>0.0002106328037461622</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>0.0006874452969262593</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>0.001053164018730811</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111">
         <v>0.2034671187804626</v>
@@ -5291,33 +5957,39 @@
         <v>322196869.25</v>
       </c>
       <c r="F111">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G111">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H111">
         <v>0.004038464173002839</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>0.001083760067127117</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>0.005253157098913356</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>0.003268163225912449</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>0.0005426145124855756</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>0.0001456157378853906</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>0.00271307256242785</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.000728078689426943</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112">
         <v>0.03031723305851668</v>
@@ -5332,33 +6004,39 @@
         <v>3437963.5</v>
       </c>
       <c r="F112">
+        <v>17942881571.56679</v>
+      </c>
+      <c r="G112">
+        <v>1424464477.417897</v>
+      </c>
+      <c r="H112">
         <v>-0.008133848345364821</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>-0.008290737656981633</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>-0.008947939810575437</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>-0.009053339306138938</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>-0.001092876887222689</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>-0.001113956786335388</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>-0.005464384436113446</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>-0.005569783931676946</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113">
         <v>0.176418937746618</v>
@@ -5373,33 +6051,39 @@
         <v>94056588.5</v>
       </c>
       <c r="F113">
+        <v>37720488719.37246</v>
+      </c>
+      <c r="G113">
+        <v>7680824462.047056</v>
+      </c>
+      <c r="H113">
         <v>0.0001357536586372028</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>0.005825821082248998</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>-8.972599824623781e-05</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>0.003732906850292057</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>1.824007893693577e-05</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>0.0007827666486445952</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>9.120039468467816e-05</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.003913833243222972</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>0.3322926075144546</v>
@@ -5414,33 +6098,39 @@
         <v>55640856.25</v>
       </c>
       <c r="F114">
+        <v>86191971741.78984</v>
+      </c>
+      <c r="G114">
+        <v>15808184832.85762</v>
+      </c>
+      <c r="H114">
         <v>0.00462859687173563</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>0.009078468210306841</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>0.00353017119145696</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>0.00651963038134369</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>0.0006219056867803244</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>0.00121979752475767</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>0.003109528433901621</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>0.006098987623788351</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>0.110305415721579</v>
@@ -5455,27 +6145,33 @@
         <v>15967348</v>
       </c>
       <c r="F115">
+        <v>2189217368.947853</v>
+      </c>
+      <c r="G115">
+        <v>284694083.3487357</v>
+      </c>
+      <c r="H115">
         <v>-0.002082351042513635</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>0.004492291265182161</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>-0.001788070556802406</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>0.002628826780564231</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>-0.0002797880202357208</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>0.0006035914472376063</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>-0.001398940101178609</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>0.003017957236188029</v>
       </c>
     </row>
